--- a/Resource/excel/P-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/P-配置列表-(框架定义,后端维护).xlsx
@@ -749,7 +749,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,11 +906,11 @@
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -958,11 +958,11 @@
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>48</v>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
